--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Chi tiet theo doi tuong/CT theo DT customize HoangTran/AR0720_HT.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Chi tiet theo doi tuong/CT theo DT customize HoangTran/AR0720_HT.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="AR0725_HT" sheetId="3" r:id="rId1"/>
-    <sheet name="EXAMPLE" sheetId="1" r:id="rId2"/>
+    <sheet name="Man hinh search" sheetId="4" r:id="rId1"/>
+    <sheet name="AR0720_HT" sheetId="3" r:id="rId2"/>
+    <sheet name="EXAMPLE" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Tháng 8- 2015</t>
   </si>
@@ -214,7 +215,46 @@
     <t>InventoryName</t>
   </si>
   <si>
-    <t>Tháng</t>
+    <t>Màn hình search chi tiết theo yêu cầu</t>
+  </si>
+  <si>
+    <t>Đổ dữ liệu vào Combobox Mã phân tích theo đối tượng
+'
+Select AnaID, AnaName 
+From AT1015
+where DivisionID=@DivisionID AND AnaTypeID='O05' 
+'
+(@DivisionID =[Biến môi trường]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Vào Bttn In Thực hiện câu @SQL(chạy Store AP0720_HT) để load Sheet AR0720_HT 
+'EXEC AP0720_HT
+( @DivisionID       AS NVARCHAR(50),
+    @FromObjectID     AS NVARCHAR(50),
+    @ToObjectID       AS NVARCHAR(50),
+    @FromInventoryID  AS NVARCHAR(50),
+    @ToInventoryID    AS NVARCHAR(50),
+    @FromMonth        AS INT,
+    @FromYear         AS INT,
+    @ToMonth          AS INT,
+    @ToYear           AS INT,
+    @FromDate         AS DATETIME,
+    @ToDate           AS DATETIME,
+    @IsDate           AS TINYINT,
+    @Isbottle         AS TINYINT,
+ @FromO05ID        AS NVarchar(250),
+ @ToO05ID    AS NVarchar(250))
+'
+</t>
+  </si>
+  <si>
+    <t>Từ ngày:</t>
+  </si>
+  <si>
+    <t>Đến kỳ</t>
+  </si>
+  <si>
+    <t>Theo kỳ</t>
   </si>
 </sst>
 </file>
@@ -387,7 +427,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,6 +513,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -492,6 +545,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885825" y="685800"/>
+          <a:ext cx="5600700" cy="3514725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -756,11 +869,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="M17" sqref="M17:T24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C2" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="9" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+    </row>
+    <row r="17" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M17" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+    </row>
+    <row r="18" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+    </row>
+    <row r="19" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+    </row>
+    <row r="20" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+    </row>
+    <row r="21" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+    </row>
+    <row r="22" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+    </row>
+    <row r="23" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+    </row>
+    <row r="24" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="M9:T15"/>
+    <mergeCell ref="M17:T24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,19 +1118,23 @@
       <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="32"/>
+      <c r="C6" s="32" t="s">
+        <v>44</v>
+      </c>
       <c r="D6" s="32"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
@@ -916,9 +1220,11 @@
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="20" t="s">
-        <v>38</v>
+      <c r="A14" s="11">
+        <v>2</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -937,38 +1243,47 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30" t="s">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A9:B9"/>
   </mergeCells>
@@ -978,7 +1293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IQ105"/>
   <sheetViews>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Chi tiet theo doi tuong/CT theo DT customize HoangTran/AR0720_HT.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Chi tiet theo doi tuong/CT theo DT customize HoangTran/AR0720_HT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Chi tiet theo doi tuong\CT theo DT customize HoangTran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\ThuViec\10_DOCUMENT\13_DETAIL_DESIGN\Chi tiet theo doi tuong\CT theo DT customize HoangTran\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -501,6 +501,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,19 +526,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -552,19 +552,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -584,8 +584,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="885825" y="685800"/>
-          <a:ext cx="5600700" cy="3514725"/>
+          <a:off x="1162050" y="1028700"/>
+          <a:ext cx="5629275" cy="3438525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -872,177 +872,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:T24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="9" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
     </row>
     <row r="17" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M17" s="37" t="s">
+      <c r="M17" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
     </row>
     <row r="18" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
     </row>
     <row r="19" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
     </row>
     <row r="20" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
     </row>
     <row r="21" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
     </row>
     <row r="22" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
     </row>
     <row r="23" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
     </row>
     <row r="24" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1108,34 +1108,34 @@
       <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
     </row>
@@ -1168,10 +1168,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -1340,14 +1340,14 @@
       </c>
     </row>
     <row r="4" spans="1:251" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1595,14 +1595,14 @@
       <c r="IQ4" s="2"/>
     </row>
     <row r="5" spans="1:251" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1852,10 +1852,10 @@
     <row r="6" spans="1:251" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="4"/>
@@ -2625,10 +2625,10 @@
       <c r="IQ8" s="10"/>
     </row>
     <row r="9" spans="1:251" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Chi tiet theo doi tuong/CT theo DT customize HoangTran/AR0720_HT.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Chi tiet theo doi tuong/CT theo DT customize HoangTran/AR0720_HT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\ThuViec\10_DOCUMENT\13_DETAIL_DESIGN\Chi tiet theo doi tuong\CT theo DT customize HoangTran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVNs\SVNThuviecPhuong\10_DOCUMENT\13_DETAIL_DESIGN\Chi tiet theo doi tuong\CT theo DT customize HoangTran\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -549,61 +549,71 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1162050" y="1028700"/>
-          <a:ext cx="5629275" cy="3438525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>466725</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -869,11 +879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,6 +1062,34 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>466725</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Chi tiet theo doi tuong/CT theo DT customize HoangTran/AR0720_HT.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Chi tiet theo doi tuong/CT theo DT customize HoangTran/AR0720_HT.xlsx
@@ -554,22 +554,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:colOff>352425</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4097" name="Object 1" hidden="1">
+            <xdr:cNvPr id="4098" name="Object 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4097"/>
+                  <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -883,7 +883,7 @@
   <dimension ref="C2:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,27 +1066,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId3">
+        <oleObject progId="Visio.Drawing.15" shapeId="4098" r:id="rId3">
           <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="4098" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
